--- a/file_exp/skill_results.xlsx
+++ b/file_exp/skill_results.xlsx
@@ -489,7 +489,7 @@
         <v>0.9438202247191011</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9590525893215576</v>
+        <v>0.9562424729024488</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         <v>0.8108108108108109</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8762945914844649</v>
+        <v>0.8760069044879172</v>
       </c>
     </row>
     <row r="4">
@@ -537,13 +537,13 @@
         <v>99</v>
       </c>
       <c r="E4" t="n">
-        <v>0.88</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9738888888888889</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
   </sheetData>
